--- a/artfynd/A 13934-2025 artfynd.xlsx
+++ b/artfynd/A 13934-2025 artfynd.xlsx
@@ -1623,12 +1623,7 @@
         <v>124676227</v>
       </c>
       <c r="B10" t="n">
-        <v>79901</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
+        <v>80221</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>

--- a/artfynd/A 13934-2025 artfynd.xlsx
+++ b/artfynd/A 13934-2025 artfynd.xlsx
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="AE10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
